--- a/data/case1/15/P_device_13.xlsx
+++ b/data/case1/15/P_device_13.xlsx
@@ -56,40 +56,40 @@
   <dimension ref="A1:B4"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.058327459805152734</v>
+        <v>-0.0090821767129363965</v>
       </c>
       <c r="B1" s="0">
-        <v>0.05832745953905473</v>
+        <v>0.0090821764594194825</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.011258671505918954</v>
+        <v>-0.0021760635564545558</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.01125867177634299</v>
+        <v>0.0021760632770192754</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0012642913695769592</v>
+        <v>0.023443850904779635</v>
       </c>
       <c r="B3" s="0">
-        <v>0.0012642910797710136</v>
+        <v>-0.023443851162496917</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0062545973932917808</v>
+        <v>-0.0062379540872743843</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.0062545976931703438</v>
+        <v>0.0062379538101951576</v>
       </c>
     </row>
   </sheetData>
